--- a/gr_data/vk_group_for_512624052.xlsx
+++ b/gr_data/vk_group_for_512624052.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2338</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>648</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>6.228355266663114</v>
+        <v>5.46218487394958</v>
       </c>
       <c r="F2">
-        <v>1.726250732590974</v>
+        <v>3.886554621848739</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,28 +470,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0.02673558506371981</v>
+        <v>0.05390835579514825</v>
       </c>
       <c r="F3">
-        <v>0.1381338561625524</v>
+        <v>0.2695417789757413</v>
       </c>
       <c r="G3">
-        <v>0.004455930843953302</v>
+        <v>0.08086253369272238</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -502,25 +502,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1832</v>
+        <v>166</v>
       </c>
       <c r="C4">
-        <v>2607</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.723245948208558</v>
+        <v>2.158366922376804</v>
       </c>
       <c r="F4">
-        <v>2.452239185032593</v>
+        <v>0.5981016772851385</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -534,28 +534,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1280</v>
+        <v>770</v>
       </c>
       <c r="C5">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2.530594492002926</v>
+        <v>5.875619992369325</v>
       </c>
       <c r="F5">
-        <v>0.5278661948162354</v>
+        <v>1.785578023655093</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.01526135062953071</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -566,25 +566,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>670</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0.01664115023630433</v>
+        <v>5.500821018062398</v>
       </c>
       <c r="F6">
-        <v>0.0199693802835652</v>
+        <v>0.8456486042692939</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.01642036124794746</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -598,28 +598,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>543</v>
+        <v>958</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>1.947213655597791</v>
+        <v>4.870856213138093</v>
       </c>
       <c r="F7">
-        <v>0.2868823065337445</v>
+        <v>1.230425055928412</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.08643481797844214</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -630,28 +630,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1419</v>
+        <v>387</v>
       </c>
       <c r="C8">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3.65881958590104</v>
+        <v>3.262794030857432</v>
       </c>
       <c r="F8">
-        <v>0.742593404326638</v>
+        <v>0.9864261023522468</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.008430992327796982</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -662,22 +662,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2690</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>706</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>3.83043558745212</v>
+        <v>0.151285930408472</v>
       </c>
       <c r="F9">
-        <v>1.005311347487434</v>
+        <v>0.2521432173474533</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.1008572869389814</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -694,28 +694,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>981</v>
+        <v>689</v>
       </c>
       <c r="C10">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>1.235454133293033</v>
+        <v>5.178504321683578</v>
       </c>
       <c r="F10">
-        <v>0.2909173341393381</v>
+        <v>2.142051860202931</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.02254791431792559</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1041</v>
+        <v>799</v>
       </c>
       <c r="C11">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>1.892968195952212</v>
+        <v>5.102171136653895</v>
       </c>
       <c r="F11">
-        <v>0.2763988143945593</v>
+        <v>1.500638569604087</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07662835249042146</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -758,28 +758,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1833</v>
+        <v>321</v>
       </c>
       <c r="C12">
-        <v>1041</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.617215002249808</v>
+        <v>2.599400761195239</v>
       </c>
       <c r="F12">
-        <v>0.9184510732908077</v>
+        <v>0.4129889059842903</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2505</v>
+        <v>127</v>
       </c>
       <c r="C13">
-        <v>751</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>2.43907188689717</v>
+        <v>1.236130036986568</v>
       </c>
       <c r="F13">
-        <v>0.7312347253731634</v>
+        <v>0.3017325287132568</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.09733307377846992</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -822,28 +822,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1647</v>
+        <v>266</v>
       </c>
       <c r="C14">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.041495078576573</v>
+        <v>2.845224088137769</v>
       </c>
       <c r="F14">
-        <v>0.6777344832043729</v>
+        <v>0.8557064926730131</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -854,28 +854,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3201</v>
+        <v>194</v>
       </c>
       <c r="C15">
-        <v>722</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>4.061873461411568</v>
+        <v>2.035036190076576</v>
       </c>
       <c r="F15">
-        <v>0.916173895388676</v>
+        <v>0.7552711633273891</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.05244938634217979</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -886,25 +886,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4613</v>
+        <v>680</v>
       </c>
       <c r="C16">
-        <v>765</v>
+        <v>132</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>3.305198899461195</v>
+        <v>3.323720611955618</v>
       </c>
       <c r="F16">
-        <v>0.5481199128740112</v>
+        <v>0.6451928246737377</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.03910259543477198</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -918,28 +918,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3543</v>
+        <v>244</v>
       </c>
       <c r="C17">
-        <v>910</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>3.447571228397945</v>
+        <v>1.775836972343523</v>
       </c>
       <c r="F17">
-        <v>0.8854896465825938</v>
+        <v>0.3275109170305677</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.09461426491994177</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6569</v>
+        <v>283</v>
       </c>
       <c r="C18">
-        <v>2540</v>
+        <v>90</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>4.346215173709666</v>
+        <v>1.960512642881884</v>
       </c>
       <c r="F18">
-        <v>1.680527712166624</v>
+        <v>0.6234845860755109</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.06927606511950121</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1564</v>
+        <v>298</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>2.550055435987739</v>
+        <v>2.770546671625139</v>
       </c>
       <c r="F19">
-        <v>0.3260940455227287</v>
+        <v>0.7809594644849386</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.06507995537374489</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2933</v>
+        <v>381</v>
       </c>
       <c r="C20">
-        <v>1313</v>
+        <v>193</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>3.213894367740522</v>
+        <v>3.244762391415432</v>
       </c>
       <c r="F20">
-        <v>1.438746438746439</v>
+        <v>1.643672287514904</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.02554931016862545</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1046,25 +1046,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3733</v>
+        <v>469</v>
       </c>
       <c r="C21">
-        <v>1345</v>
+        <v>166</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>3.728116167820156</v>
+        <v>2.917029481278766</v>
       </c>
       <c r="F21">
-        <v>1.343240355134773</v>
+        <v>1.032466724717005</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.05597711158104242</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1078,22 +1078,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1183</v>
+        <v>539</v>
       </c>
       <c r="C22">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>1.870178323004932</v>
+        <v>3.709311127933384</v>
       </c>
       <c r="F22">
-        <v>0.1802200581762995</v>
+        <v>1.362604087812263</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.02752735530933866</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1110,25 +1110,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4147</v>
+        <v>1448</v>
       </c>
       <c r="C23">
-        <v>2066</v>
+        <v>396</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>2.818806544362047</v>
+        <v>4.610437163689624</v>
       </c>
       <c r="F23">
-        <v>1.404305358247405</v>
+        <v>1.260865412169262</v>
       </c>
       <c r="G23">
-        <v>0.0006797218578157817</v>
+        <v>0.02865603209475595</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1142,25 +1142,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1743</v>
+        <v>382</v>
       </c>
       <c r="C24">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>1.822554504104146</v>
+        <v>2.829839247351656</v>
       </c>
       <c r="F24">
-        <v>0.1589376274376536</v>
+        <v>0.2889102896510853</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.03703978072449811</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1174,25 +1174,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3227</v>
+        <v>974</v>
       </c>
       <c r="C25">
-        <v>3319</v>
+        <v>236</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>1.490641340699544</v>
+        <v>5.010288065843621</v>
       </c>
       <c r="F25">
-        <v>1.533138707710501</v>
+        <v>1.213991769547325</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0360082304526749</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1206,19 +1206,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10512</v>
+        <v>189</v>
       </c>
       <c r="C26">
-        <v>1628</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4.440558111242064</v>
+        <v>1.979264844486334</v>
       </c>
       <c r="F26">
-        <v>0.6877120058126027</v>
+        <v>0.7330610535134569</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1238,25 +1238,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5543</v>
+        <v>279</v>
       </c>
       <c r="C27">
-        <v>823</v>
+        <v>102</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>3.5014023296359</v>
+        <v>1.635500322410458</v>
       </c>
       <c r="F27">
-        <v>0.51987265330874</v>
+        <v>0.5979248490532857</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.0293100416202591</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1270,25 +1270,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2360</v>
+        <v>231</v>
       </c>
       <c r="C28">
-        <v>1145</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>2.800821257758631</v>
+        <v>1.860802319961334</v>
       </c>
       <c r="F28">
-        <v>1.358873025480353</v>
+        <v>0.3463831158369583</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.03222168519413565</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1302,22 +1302,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16729</v>
+        <v>152</v>
       </c>
       <c r="C29">
-        <v>2112</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>4.772800543213116</v>
+        <v>1.445553970518307</v>
       </c>
       <c r="F29">
-        <v>0.6025557264191586</v>
+        <v>0.3423680456490727</v>
       </c>
       <c r="G29">
-        <v>0.0002853010068272531</v>
+        <v>0.1141226818830243</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1334,28 +1334,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10309</v>
+        <v>380</v>
       </c>
       <c r="C30">
-        <v>9308</v>
+        <v>113</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>1.685182036930481</v>
+        <v>2.736766294562477</v>
       </c>
       <c r="F30">
-        <v>1.521551498666109</v>
+        <v>0.8138278718041051</v>
       </c>
       <c r="G30">
-        <v>0.0003269341423863577</v>
+        <v>0.0216060496939143</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1366,22 +1366,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2097</v>
+        <v>297</v>
       </c>
       <c r="C31">
-        <v>1361</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1.165874405804353</v>
+        <v>2.978936810431294</v>
       </c>
       <c r="F31">
-        <v>0.7566786200761683</v>
+        <v>0.6619859578736209</v>
       </c>
       <c r="G31">
-        <v>0.0005559725349567732</v>
+        <v>0.02006018054162487</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1398,19 +1398,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1350</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2.3657647553624</v>
+        <v>0.07397817643795081</v>
       </c>
       <c r="F32">
-        <v>0.1436983036590495</v>
+        <v>0.0369890882189754</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1430,25 +1430,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3409</v>
+        <v>717</v>
       </c>
       <c r="C33">
-        <v>1191</v>
+        <v>259</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>4.185800938090911</v>
+        <v>4.225103123158515</v>
       </c>
       <c r="F33">
-        <v>1.462390412809116</v>
+        <v>1.526222746022392</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.01178550383028875</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1462,28 +1462,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>721</v>
+        <v>414</v>
       </c>
       <c r="C34">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1.412977443314324</v>
+        <v>3.001522511418836</v>
       </c>
       <c r="F34">
-        <v>0.3174789817155623</v>
+        <v>1.065757993184949</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3948</v>
+        <v>664</v>
       </c>
       <c r="C35">
-        <v>1577</v>
+        <v>219</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>4.435107900738061</v>
+        <v>4.096742349457058</v>
       </c>
       <c r="F35">
-        <v>1.7715717222553</v>
+        <v>1.351184600197433</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.02467917077986179</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1526,28 +1526,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1494</v>
+        <v>918</v>
       </c>
       <c r="C36">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>1.566809644164316</v>
+        <v>5.637089346023949</v>
       </c>
       <c r="F36">
-        <v>0.2401602466624018</v>
+        <v>1.080749155664722</v>
       </c>
       <c r="G36">
-        <v>0.001048734701582541</v>
+        <v>0.02456248081056187</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1558,28 +1558,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2767</v>
+        <v>446</v>
       </c>
       <c r="C37">
-        <v>965</v>
+        <v>114</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>3.590801733758987</v>
+        <v>2.716530637105616</v>
       </c>
       <c r="F37">
-        <v>1.252303459731631</v>
+        <v>0.6943598489462786</v>
       </c>
       <c r="G37">
-        <v>0.002595447584936022</v>
+        <v>0.01827262760384943</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1590,28 +1590,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5097</v>
+        <v>695</v>
       </c>
       <c r="C38">
-        <v>1222</v>
+        <v>155</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>4.767650690313166</v>
+        <v>3.040510980838219</v>
       </c>
       <c r="F38">
-        <v>1.143038874546339</v>
+        <v>0.6780995712660776</v>
       </c>
       <c r="G38">
-        <v>0.0009353836943914394</v>
+        <v>0.03062385160556479</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1622,19 +1622,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2212</v>
+        <v>644</v>
       </c>
       <c r="C39">
-        <v>869</v>
+        <v>219</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>2.978522857335219</v>
+        <v>4.097734792568083</v>
       </c>
       <c r="F39">
-        <v>1.170133979667407</v>
+        <v>1.393484347162128</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2997</v>
+        <v>261</v>
       </c>
       <c r="C40">
-        <v>836</v>
+        <v>88</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>2.839412600663193</v>
+        <v>1.928903998226295</v>
       </c>
       <c r="F40">
-        <v>0.7920416864045475</v>
+        <v>0.6503584361835785</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.03695218387406696</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1686,22 +1686,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5445</v>
+        <v>218</v>
       </c>
       <c r="C41">
-        <v>623</v>
+        <v>59</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>4.121097445600757</v>
+        <v>2.390350877192982</v>
       </c>
       <c r="F41">
-        <v>0.471523178807947</v>
+        <v>0.6469298245614036</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.01096491228070175</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -1718,28 +1718,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3425</v>
+        <v>412</v>
       </c>
       <c r="C42">
-        <v>3630</v>
+        <v>119</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1.79159910027724</v>
+        <v>3.439926525841196</v>
       </c>
       <c r="F42">
-        <v>1.898833498979966</v>
+        <v>0.9935710111046172</v>
       </c>
       <c r="G42">
-        <v>0.001046189255636345</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1750,31 +1750,31 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1621</v>
+        <v>386</v>
       </c>
       <c r="C43">
-        <v>443</v>
+        <v>120</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.8239342479122086</v>
+        <v>2.912987699041582</v>
       </c>
       <c r="F43">
-        <v>0.2251714200031514</v>
+        <v>0.905592030790129</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,28 +1782,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5635</v>
+        <v>501</v>
       </c>
       <c r="C44">
-        <v>2855</v>
+        <v>173</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1.273806159932184</v>
+        <v>3.719652535451778</v>
       </c>
       <c r="F44">
-        <v>0.6453800508618254</v>
+        <v>1.284430915435444</v>
       </c>
       <c r="G44">
-        <v>0.0004521051144391071</v>
+        <v>0.007424456158586383</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1814,22 +1814,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7537</v>
+        <v>144</v>
       </c>
       <c r="C45">
-        <v>2690</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>3.875004498645265</v>
+        <v>1.115587232723892</v>
       </c>
       <c r="F45">
-        <v>1.383012087217164</v>
+        <v>0.2788968081809731</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.03098853424233034</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1846,28 +1846,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>971</v>
+        <v>81</v>
       </c>
       <c r="C46">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>0.7482353666430355</v>
+        <v>0.5973451327433629</v>
       </c>
       <c r="F46">
-        <v>0.04161144160527695</v>
+        <v>0.5825958702064896</v>
       </c>
       <c r="G46">
-        <v>0.000770582251949573</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1878,28 +1878,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1406</v>
+        <v>326</v>
       </c>
       <c r="C47">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>1.373892140672484</v>
+        <v>2.096328210404475</v>
       </c>
       <c r="F47">
-        <v>0.3019435785688461</v>
+        <v>2.552890489357598</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.02572181853257025</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -1910,28 +1910,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3035</v>
+        <v>622</v>
       </c>
       <c r="C48">
-        <v>610</v>
+        <v>117</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>3.318571975288393</v>
+        <v>3.761035191679768</v>
       </c>
       <c r="F48">
-        <v>0.6669946968454431</v>
+        <v>0.7074616035796347</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.01209336074495102</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1942,28 +1942,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2279</v>
+        <v>1394</v>
       </c>
       <c r="C49">
-        <v>612</v>
+        <v>333</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>1.096986296094844</v>
+        <v>5.379539227414811</v>
       </c>
       <c r="F49">
-        <v>0.2945834195743944</v>
+        <v>1.285069270250453</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.01543626751051596</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2871</v>
+        <v>236</v>
       </c>
       <c r="C50">
-        <v>2492</v>
+        <v>116</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>2.196566287183254</v>
+        <v>2.218879277924032</v>
       </c>
       <c r="F50">
-        <v>1.906598114824336</v>
+        <v>1.090635577284694</v>
       </c>
       <c r="G50">
-        <v>0.0007650875260129759</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2006,25 +2006,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5235</v>
+        <v>245</v>
       </c>
       <c r="C51">
-        <v>1704</v>
+        <v>31</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>3.547252657898482</v>
+        <v>2.524992270431825</v>
       </c>
       <c r="F51">
-        <v>1.154635822169821</v>
+        <v>0.3194888178913738</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2038,28 +2038,28 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2680</v>
+        <v>855</v>
       </c>
       <c r="C52">
-        <v>450</v>
+        <v>207</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>2.99900406208386</v>
+        <v>4.160786412964135</v>
       </c>
       <c r="F52">
-        <v>0.5035641149021407</v>
+        <v>1.007348289454475</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.01946566742907197</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2070,28 +2070,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4082</v>
+        <v>382</v>
       </c>
       <c r="C53">
-        <v>1423</v>
+        <v>224</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>1.746579152297252</v>
+        <v>2.682961090040736</v>
       </c>
       <c r="F53">
-        <v>0.608863825016901</v>
+        <v>1.573254670599803</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.02107037505267594</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2102,25 +2102,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8511</v>
+        <v>186</v>
       </c>
       <c r="C54">
-        <v>1424</v>
+        <v>73</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>3.156910819402149</v>
+        <v>1.687380930781094</v>
       </c>
       <c r="F54">
-        <v>0.5281918701478863</v>
+        <v>0.6622516556291391</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.009071940488070397</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -2134,28 +2134,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3561</v>
+        <v>258</v>
       </c>
       <c r="C55">
-        <v>625</v>
+        <v>71</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>3.759898637947418</v>
+        <v>1.604078587416065</v>
       </c>
       <c r="F55">
-        <v>0.6599091964945624</v>
+        <v>0.4414324794827157</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.06839094752549117</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3532</v>
+        <v>243</v>
       </c>
       <c r="C56">
-        <v>1217</v>
+        <v>173</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>3.003477979880439</v>
+        <v>1.245706669400728</v>
       </c>
       <c r="F56">
-        <v>1.034890345842156</v>
+        <v>0.8868611267750037</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.0102527297893064</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2198,28 +2198,28 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2312</v>
+        <v>404</v>
       </c>
       <c r="C57">
-        <v>1452</v>
+        <v>225</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>1.095672284040718</v>
+        <v>2.099355643317398</v>
       </c>
       <c r="F57">
-        <v>0.6881125244061949</v>
+        <v>1.169195593431719</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>0.01558927457908959</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2230,25 +2230,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3283</v>
+        <v>91</v>
       </c>
       <c r="C58">
-        <v>1587</v>
+        <v>27</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>3.665126041038695</v>
+        <v>1.414361206092633</v>
       </c>
       <c r="F58">
-        <v>1.771719472168263</v>
+        <v>0.419645632576935</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2262,28 +2262,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4912</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>1187</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>4.540664460426334</v>
+        <v>0.1731301939058172</v>
       </c>
       <c r="F59">
-        <v>1.097265617778107</v>
+        <v>0.03462603878116344</v>
       </c>
       <c r="G59">
-        <v>0.001848804747730592</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2294,22 +2294,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="C60">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0.5371124010990146</v>
+        <v>1.031982942430704</v>
       </c>
       <c r="F60">
-        <v>0.05784287396450927</v>
+        <v>0.4861407249466951</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.008528784648187633</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2326,19 +2326,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>11895</v>
+        <v>329</v>
       </c>
       <c r="C61">
-        <v>7975</v>
+        <v>131</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>2.109854323383288</v>
+        <v>2.466082002848362</v>
       </c>
       <c r="F61">
-        <v>1.414551343336</v>
+        <v>0.9819353871523874</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2358,28 +2358,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1399</v>
+        <v>779</v>
       </c>
       <c r="C62">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E62">
-        <v>2.169463139286047</v>
+        <v>4.146704993079953</v>
       </c>
       <c r="F62">
-        <v>0.35821728747325</v>
+        <v>0.7824976045991696</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.09581603321622484</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2390,22 +2390,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2381</v>
+        <v>136</v>
       </c>
       <c r="C63">
-        <v>1110</v>
+        <v>81</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>1.994554973821989</v>
+        <v>1.185908615277293</v>
       </c>
       <c r="F63">
-        <v>0.9298429319371727</v>
+        <v>0.7063132193930938</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.05231949773282176</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2422,28 +2422,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1879</v>
+        <v>367</v>
       </c>
       <c r="C64">
-        <v>762</v>
+        <v>141</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>1.665189649060617</v>
+        <v>2.587240042298202</v>
       </c>
       <c r="F64">
-        <v>0.6752924494859979</v>
+        <v>0.9940077546704266</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.02819880155093409</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2454,28 +2454,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1570</v>
+        <v>304</v>
       </c>
       <c r="C65">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>1.265526886400826</v>
+        <v>2.462934456777121</v>
       </c>
       <c r="F65">
-        <v>0.2974391217082195</v>
+        <v>0.7129547111723245</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>0.01620351616300737</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2486,28 +2486,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2098</v>
+        <v>30</v>
       </c>
       <c r="C66">
-        <v>1154</v>
+        <v>40</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>1.258857907463743</v>
+        <v>0.3306149437954596</v>
       </c>
       <c r="F66">
-        <v>0.6924318518651859</v>
+        <v>0.4408199250606127</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.07714348688560722</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2518,25 +2518,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>12586</v>
+        <v>417</v>
       </c>
       <c r="C67">
-        <v>13484</v>
+        <v>121</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>3.297639041363282</v>
+        <v>3.149071137290439</v>
       </c>
       <c r="F67">
-        <v>3.53292267867015</v>
+        <v>0.9137592508684489</v>
       </c>
       <c r="G67">
-        <v>0.0005240170095921313</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -2550,28 +2550,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1743</v>
+        <v>239</v>
       </c>
       <c r="C68">
-        <v>288</v>
+        <v>59</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>1.083119982103353</v>
+        <v>2.027485578554462</v>
       </c>
       <c r="F68">
-        <v>0.1789664686435833</v>
+        <v>0.500508992195453</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>0.0169664065151001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2582,25 +2582,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>11113</v>
+        <v>215</v>
       </c>
       <c r="C69">
-        <v>3804</v>
+        <v>65</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>3.238261193899376</v>
+        <v>1.935367719866775</v>
       </c>
       <c r="F69">
-        <v>1.108462663690563</v>
+        <v>0.5851111711225132</v>
       </c>
       <c r="G69">
-        <v>0.0002913939704759629</v>
+        <v>0.03600684129984697</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -2614,22 +2614,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2568</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>1096</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>2.965152529847817</v>
+        <v>0.05515719801434087</v>
       </c>
       <c r="F70">
-        <v>1.265501235480221</v>
+        <v>0.03677146534289392</v>
       </c>
       <c r="G70">
-        <v>0.002309308823869016</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -2646,22 +2646,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1207</v>
+        <v>880</v>
       </c>
       <c r="C71">
-        <v>443</v>
+        <v>299</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E71">
-        <v>1.830091125498461</v>
+        <v>4.134172695668514</v>
       </c>
       <c r="F71">
-        <v>0.6716904462268586</v>
+        <v>1.404679131823734</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>0.02818754110683078</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -2678,28 +2678,28 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3309</v>
+        <v>190</v>
       </c>
       <c r="C72">
-        <v>1976</v>
+        <v>56</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>3.889097832730008</v>
+        <v>2.11017325633052</v>
       </c>
       <c r="F72">
-        <v>2.322410794038833</v>
+        <v>0.6219458018658374</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.01110617503331852</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3578</v>
+        <v>720</v>
       </c>
       <c r="C73">
-        <v>808</v>
+        <v>306</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>3.920623267332157</v>
+        <v>3.909219242045825</v>
       </c>
       <c r="F73">
-        <v>0.8853727221923933</v>
+        <v>1.661418177869476</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>0.01628841350852427</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -2742,28 +2742,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1418</v>
+        <v>726</v>
       </c>
       <c r="C74">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>1.227546206120417</v>
+        <v>2.575198637911464</v>
       </c>
       <c r="F74">
-        <v>0.3254988529628187</v>
+        <v>1.486237230419977</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>0.03901816118047673</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2774,25 +2774,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1342</v>
+        <v>600</v>
       </c>
       <c r="C75">
-        <v>552</v>
+        <v>233</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>1.204938271604938</v>
+        <v>3.676020095576523</v>
       </c>
       <c r="F75">
-        <v>0.4956228956228956</v>
+        <v>1.42752113711555</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -2806,28 +2806,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2151</v>
+        <v>476</v>
       </c>
       <c r="C76">
-        <v>496</v>
+        <v>163</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>3.082500967312019</v>
+        <v>3.772986683576411</v>
       </c>
       <c r="F76">
-        <v>0.7107952021323856</v>
+        <v>1.292010145846544</v>
       </c>
       <c r="G76">
-        <v>0.001433054843008842</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2838,28 +2838,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2439</v>
+        <v>324</v>
       </c>
       <c r="C77">
-        <v>605</v>
+        <v>132</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>1.846985679992124</v>
+        <v>1.984929240948355</v>
       </c>
       <c r="F77">
-        <v>0.4581493794158407</v>
+        <v>0.8086748759419224</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>0.03063162408870919</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -2870,28 +2870,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5787</v>
+        <v>314</v>
       </c>
       <c r="C78">
-        <v>1848</v>
+        <v>97</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E78">
-        <v>2.480167658819445</v>
+        <v>1.800149056928281</v>
       </c>
       <c r="F78">
-        <v>0.7920079200792008</v>
+        <v>0.556097001662558</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>0.05159662902023735</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2902,28 +2902,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1819</v>
+        <v>376</v>
       </c>
       <c r="C79">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>2.605196070006588</v>
+        <v>2.438391699092088</v>
       </c>
       <c r="F79">
-        <v>0.3895620291598637</v>
+        <v>0.5706874189364461</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -2934,28 +2934,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2987</v>
+        <v>258</v>
       </c>
       <c r="C80">
-        <v>1138</v>
+        <v>92</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>1.548334257737783</v>
+        <v>2.440639485384543</v>
       </c>
       <c r="F80">
-        <v>0.5898909893892192</v>
+        <v>0.8703055529278214</v>
       </c>
       <c r="G80">
-        <v>0.0005183576356671522</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2966,28 +2966,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2599</v>
+        <v>165</v>
       </c>
       <c r="C81">
-        <v>1297</v>
+        <v>45</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>1.197563403125922</v>
+        <v>1.409292791253844</v>
       </c>
       <c r="F81">
-        <v>0.5976297552344442</v>
+        <v>0.3843525794328664</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.01708233686368295</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4886</v>
+        <v>511</v>
       </c>
       <c r="C82">
-        <v>815</v>
+        <v>68</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E82">
-        <v>3.511596317351713</v>
+        <v>3.064284000959463</v>
       </c>
       <c r="F82">
-        <v>0.5857451900617369</v>
+        <v>0.4077716478771888</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.08395298632765652</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -3030,28 +3030,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2784</v>
+        <v>211</v>
       </c>
       <c r="C83">
-        <v>766</v>
+        <v>68</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>2.516632918715649</v>
+        <v>2.003418154196734</v>
       </c>
       <c r="F83">
-        <v>0.6924356378362743</v>
+        <v>0.6456513482719332</v>
       </c>
       <c r="G83">
-        <v>0.001807925947353196</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -3062,28 +3062,28 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2581</v>
+        <v>201</v>
       </c>
       <c r="C84">
-        <v>902</v>
+        <v>77</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>2.839227765249436</v>
+        <v>0.955641135358722</v>
       </c>
       <c r="F84">
-        <v>0.9922446510092954</v>
+        <v>0.3660913802120477</v>
       </c>
       <c r="G84">
-        <v>0.0011000495022276</v>
+        <v>0.01426330052774212</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -3094,28 +3094,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2192</v>
+        <v>146</v>
       </c>
       <c r="C85">
-        <v>983</v>
+        <v>76</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>3.034498034221164</v>
+        <v>0.9164522001129872</v>
       </c>
       <c r="F85">
-        <v>1.360817321003378</v>
+        <v>0.4770573096478564</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.04393948904651309</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -3126,19 +3126,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>934</v>
+        <v>528</v>
       </c>
       <c r="C86">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1.059954378837228</v>
+        <v>3.356216628527842</v>
       </c>
       <c r="F86">
-        <v>0.2133527015218403</v>
+        <v>2.027714213068904</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>12665</v>
+        <v>338</v>
       </c>
       <c r="C87">
-        <v>1729</v>
+        <v>141</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>4.853029646972269</v>
+        <v>2.493912786836863</v>
       </c>
       <c r="F87">
-        <v>0.6625257212487211</v>
+        <v>1.04036006788165</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.007378440197742197</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3190,28 +3190,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1687</v>
+        <v>656</v>
       </c>
       <c r="C88">
-        <v>822</v>
+        <v>346</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E88">
-        <v>1.060972925379705</v>
+        <v>4.252009333679025</v>
       </c>
       <c r="F88">
-        <v>0.5169648753183862</v>
+        <v>2.242675654653876</v>
       </c>
       <c r="G88">
-        <v>0.0006289110405333166</v>
+        <v>0.08426238008815141</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -3222,22 +3222,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="C89">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>0.494148244473342</v>
+        <v>0.6044047027653585</v>
       </c>
       <c r="F89">
-        <v>0.2225111978037856</v>
+        <v>1.283325053816857</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.0662361318099023</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3254,28 +3254,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>3665</v>
+        <v>260</v>
       </c>
       <c r="C90">
-        <v>3402</v>
+        <v>43</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>1.932334038077262</v>
+        <v>2.300274263469875</v>
       </c>
       <c r="F90">
-        <v>1.793669958400776</v>
+        <v>0.3804299743430948</v>
       </c>
       <c r="G90">
-        <v>0.0005272398466786526</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3286,28 +3286,28 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3267</v>
+        <v>162</v>
       </c>
       <c r="C91">
-        <v>948</v>
+        <v>46</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>3.01634198134983</v>
+        <v>1.723220933943197</v>
       </c>
       <c r="F91">
-        <v>0.8752654417874619</v>
+        <v>0.4893096479097968</v>
       </c>
       <c r="G91">
-        <v>0.0009232757824762257</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -3318,28 +3318,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2749</v>
+        <v>316</v>
       </c>
       <c r="C92">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>3.444387365150167</v>
+        <v>2.414609918239474</v>
       </c>
       <c r="F92">
-        <v>0.2769041861397551</v>
+        <v>0.4813937495224269</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.01528234125468022</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3350,28 +3350,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3484</v>
+        <v>583</v>
       </c>
       <c r="C93">
-        <v>1572</v>
+        <v>110</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>3.384725986806952</v>
+        <v>3.76031991744066</v>
       </c>
       <c r="F93">
-        <v>1.527207018157442</v>
+        <v>0.7094943240454076</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.03224974200206399</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -3382,28 +3382,28 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1348</v>
+        <v>432</v>
       </c>
       <c r="C94">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>0.8158077889067087</v>
+        <v>2.467866323907455</v>
       </c>
       <c r="F94">
-        <v>0.1773232063424819</v>
+        <v>0.2342187946301057</v>
       </c>
       <c r="G94">
-        <v>0.0006051986564589827</v>
+        <v>0.02285061411025421</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3414,28 +3414,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1487</v>
+        <v>507</v>
       </c>
       <c r="C95">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>1.142369860487985</v>
+        <v>2.542372881355933</v>
       </c>
       <c r="F95">
-        <v>0.3841189846966996</v>
+        <v>0.8023267475679471</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.08524721692909437</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -3446,28 +3446,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4097</v>
+        <v>537</v>
       </c>
       <c r="C96">
-        <v>1858</v>
+        <v>172</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>2.953090762311152</v>
+        <v>3.238451332770474</v>
       </c>
       <c r="F96">
-        <v>1.339234229039326</v>
+        <v>1.037269328187191</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.01206127125799059</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3478,31 +3478,31 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>240</v>
+        <v>595</v>
       </c>
       <c r="C97">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E97">
-        <v>0.4758128469468675</v>
+        <v>2.602230483271375</v>
       </c>
       <c r="F97">
-        <v>0.3152260111022998</v>
+        <v>0.7872293898972229</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>0.03061447627378089</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3510,22 +3510,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4100</v>
+        <v>594</v>
       </c>
       <c r="C98">
-        <v>576</v>
+        <v>228</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E98">
-        <v>3.887361334976771</v>
+        <v>3.076763700404019</v>
       </c>
       <c r="F98">
-        <v>0.5461268607186878</v>
+        <v>1.180980006215684</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>0.06215684243240443</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3542,28 +3542,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2178</v>
+        <v>205</v>
       </c>
       <c r="C99">
-        <v>466</v>
+        <v>53</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>2.932267054404459</v>
+        <v>1.774430883753138</v>
       </c>
       <c r="F99">
-        <v>0.6273812889588971</v>
+        <v>0.4587553016532502</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>0.008655760408551892</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -3574,22 +3574,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4639</v>
+        <v>941</v>
       </c>
       <c r="C100">
-        <v>1005</v>
+        <v>214</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E100">
-        <v>3.460339246020498</v>
+        <v>3.520257379072986</v>
       </c>
       <c r="F100">
-        <v>0.7496531455595172</v>
+        <v>0.8005686281845049</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.06733754816505182</v>
       </c>
       <c r="H100">
         <v>0</v>
